--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -14,15 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
-    <t>Nome_regione</t>
+    <t>NOME_REGIONE</t>
   </si>
   <si>
     <t>Anno</t>
   </si>
   <si>
-    <t>Data_week</t>
+    <t>Data_WEEK</t>
   </si>
   <si>
     <t>N</t>
@@ -31,13 +31,7 @@
     <t>Lazio</t>
   </si>
   <si>
-    <t>2022-05-28</t>
-  </si>
-  <si>
     <t>Stato_conservazione_carcassa</t>
-  </si>
-  <si>
-    <t>Perc</t>
   </si>
   <si>
     <t>Fresca</t>
@@ -47,9 +41,6 @@
   </si>
   <si>
     <t>Sesso</t>
-  </si>
-  <si>
-    <t>Casi</t>
   </si>
   <si>
     <t>6-18 mesi (1 molare)</t>
@@ -62,7 +53,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11.0"/>
@@ -92,8 +85,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -127,8 +122,8 @@
       <c r="B2" t="n">
         <v>2022.0</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="C2" t="n" s="2">
+        <v>44709.0</v>
       </c>
       <c r="D2" t="n">
         <v>1.0</v>
@@ -149,24 +144,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>1.0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>100.0</v>
       </c>
     </row>
   </sheetData>
@@ -184,21 +173,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>

--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>NOME_REGIONE</t>
   </si>
@@ -28,25 +28,13 @@
     <t>N</t>
   </si>
   <si>
-    <t>Lazio</t>
-  </si>
-  <si>
     <t>Stato_conservazione_carcassa</t>
-  </si>
-  <si>
-    <t>Fresca</t>
   </si>
   <si>
     <t>Eta_descrizione</t>
   </si>
   <si>
     <t>Sesso</t>
-  </si>
-  <si>
-    <t>6-18 mesi (1 molare)</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
 </sst>
 </file>
@@ -116,18 +104,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2022.0</v>
-      </c>
-      <c r="C2" t="n" s="2">
-        <v>44709.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2" s="2"/>
+      <c r="D2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -144,19 +124,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A2"/>
+      <c r="B2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -173,25 +149,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>NOME_REGIONE</t>
   </si>
@@ -28,13 +28,34 @@
     <t>N</t>
   </si>
   <si>
+    <t>Calabria</t>
+  </si>
+  <si>
     <t>Stato_conservazione_carcassa</t>
   </si>
   <si>
+    <t>Vuoto</t>
+  </si>
+  <si>
+    <t>Fresca</t>
+  </si>
+  <si>
     <t>Eta_descrizione</t>
   </si>
   <si>
     <t>Sesso</t>
+  </si>
+  <si>
+    <t>0-6 mesi (solo premolari)</t>
+  </si>
+  <si>
+    <t>18-30 mesi (2 molari)</t>
+  </si>
+  <si>
+    <t>Non determinato</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -104,10 +125,46 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2" s="2"/>
-      <c r="D2"/>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C2" t="n" s="2">
+        <v>45046.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C3" t="n" s="2">
+        <v>45053.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C4" t="n" s="2">
+        <v>45060.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -124,15 +181,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -149,19 +218,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -163,7 +163,7 @@
         <v>45060.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -192,7 +192,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -257,7 +257,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>NOME_REGIONE</t>
   </si>
@@ -31,12 +31,18 @@
     <t>Calabria</t>
   </si>
   <si>
+    <t>Campania</t>
+  </si>
+  <si>
     <t>Stato_conservazione_carcassa</t>
   </si>
   <si>
     <t>Vuoto</t>
   </si>
   <si>
+    <t>In decomposizione</t>
+  </si>
+  <si>
     <t>Fresca</t>
   </si>
   <si>
@@ -52,10 +58,19 @@
     <t>18-30 mesi (2 molari)</t>
   </si>
   <si>
+    <t>6-18 mesi (1 molare)</t>
+  </si>
+  <si>
     <t>Non determinato</t>
   </si>
   <si>
+    <t>Oltre 30 mesi (3 molari)</t>
+  </si>
+  <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -166,6 +181,62 @@
         <v>2.0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C5" t="n" s="2">
+        <v>45067.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C6" t="n" s="2">
+        <v>45081.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C7" t="n" s="2">
+        <v>45067.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C8" t="n" s="2">
+        <v>45074.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -181,7 +252,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -189,18 +260,26 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -218,10 +297,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -229,10 +308,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
         <v>1.0</v>
@@ -240,10 +319,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -254,10 +333,76 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>4.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -220,7 +220,7 @@
         <v>45067.0</v>
       </c>
       <c r="D7" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
@@ -234,7 +234,7 @@
         <v>45074.0</v>
       </c>
       <c r="D8" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
     </row>
   </sheetData>
@@ -263,7 +263,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="3">
@@ -271,7 +271,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="4">
@@ -279,7 +279,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
@@ -347,7 +347,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -369,7 +369,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="8">
@@ -380,7 +380,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
@@ -402,7 +402,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
   <si>
     <t>NOME_REGIONE</t>
   </si>
@@ -237,6 +237,20 @@
         <v>12.0</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C9" t="n" s="2">
+        <v>45081.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -263,7 +277,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="3">
@@ -271,7 +285,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
     </row>
     <row r="4">
@@ -336,7 +350,7 @@
         <v>15</v>
       </c>
       <c r="C4" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
@@ -369,7 +383,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="8">
@@ -402,7 +416,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>NOME_REGIONE</t>
   </si>
@@ -248,6 +248,20 @@
         <v>45081.0</v>
       </c>
       <c r="D9" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C10" t="n" s="2">
+        <v>45088.0</v>
+      </c>
+      <c r="D10" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -285,7 +299,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="4">
@@ -293,7 +307,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -369,32 +383,32 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="9">
@@ -402,10 +416,10 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
@@ -413,9 +427,20 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C11" t="n">
         <v>5.0</v>
       </c>
     </row>

--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -397,7 +397,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>NOME_REGIONE</t>
   </si>
@@ -211,16 +211,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
         <v>2023.0</v>
       </c>
       <c r="C7" t="n" s="2">
-        <v>45067.0</v>
+        <v>45095.0</v>
       </c>
       <c r="D7" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -231,10 +231,10 @@
         <v>2023.0</v>
       </c>
       <c r="C8" t="n" s="2">
-        <v>45074.0</v>
+        <v>45067.0</v>
       </c>
       <c r="D8" t="n">
-        <v>12.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="9">
@@ -245,10 +245,10 @@
         <v>2023.0</v>
       </c>
       <c r="C9" t="n" s="2">
-        <v>45081.0</v>
+        <v>45074.0</v>
       </c>
       <c r="D9" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="10">
@@ -259,9 +259,23 @@
         <v>2023.0</v>
       </c>
       <c r="C10" t="n" s="2">
+        <v>45081.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C11" t="n" s="2">
         <v>45088.0</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D11" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -291,7 +305,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -299,7 +313,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>17.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="4">
@@ -307,7 +321,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
@@ -375,15 +389,15 @@
         <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -394,29 +408,29 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
         <v>3.0</v>
@@ -424,10 +438,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -438,9 +452,31 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="n">
         <v>4.0</v>
       </c>
     </row>

--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
   <si>
     <t>NOME_REGIONE</t>
   </si>
@@ -276,6 +276,20 @@
         <v>45088.0</v>
       </c>
       <c r="D11" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C12" t="n" s="2">
+        <v>45095.0</v>
+      </c>
+      <c r="D12" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -305,7 +319,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -321,7 +335,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
   </sheetData>
@@ -433,7 +447,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
@@ -444,7 +458,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">

--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
   <si>
     <t>NOME_REGIONE</t>
   </si>
@@ -319,7 +319,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -335,7 +335,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
     </row>
   </sheetData>
@@ -381,7 +381,7 @@
         <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -411,7 +411,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -419,13 +419,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -433,10 +433,10 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -444,7 +444,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -452,24 +452,24 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -477,10 +477,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
@@ -488,9 +488,20 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C14" t="n">
         <v>4.0</v>
       </c>
     </row>

--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -220,7 +220,7 @@
         <v>45095.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -319,7 +319,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">

--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
   <si>
     <t>NOME_REGIONE</t>
   </si>
@@ -225,30 +225,30 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
         <v>2023.0</v>
       </c>
       <c r="C8" t="n" s="2">
-        <v>45067.0</v>
+        <v>45102.0</v>
       </c>
       <c r="D8" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
         <v>2023.0</v>
       </c>
       <c r="C9" t="n" s="2">
-        <v>45074.0</v>
+        <v>45109.0</v>
       </c>
       <c r="D9" t="n">
-        <v>13.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -259,10 +259,10 @@
         <v>2023.0</v>
       </c>
       <c r="C10" t="n" s="2">
-        <v>45081.0</v>
+        <v>45067.0</v>
       </c>
       <c r="D10" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="11">
@@ -273,10 +273,10 @@
         <v>2023.0</v>
       </c>
       <c r="C11" t="n" s="2">
-        <v>45088.0</v>
+        <v>45074.0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="12">
@@ -287,9 +287,51 @@
         <v>2023.0</v>
       </c>
       <c r="C12" t="n" s="2">
+        <v>45081.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C13" t="n" s="2">
+        <v>45088.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C14" t="n" s="2">
         <v>45095.0</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C15" t="n" s="2">
+        <v>45109.0</v>
+      </c>
+      <c r="D15" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -319,7 +361,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +511,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="12">

--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -361,7 +361,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -369,7 +369,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="4">
@@ -456,7 +456,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="12">

--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
   <si>
     <t>NOME_REGIONE</t>
   </si>
@@ -335,6 +335,20 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C16" t="n" s="2">
+        <v>45116.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -361,7 +375,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -511,7 +525,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="12">

--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -375,7 +375,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -383,7 +383,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="4">
@@ -391,7 +391,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
     </row>
   </sheetData>
@@ -470,7 +470,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -525,7 +525,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
@@ -536,7 +536,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="13">
@@ -558,7 +558,7 @@
         <v>15</v>
       </c>
       <c r="C14" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
   <si>
     <t>NOME_REGIONE</t>
   </si>
@@ -28,18 +28,12 @@
     <t>N</t>
   </si>
   <si>
-    <t>Calabria</t>
-  </si>
-  <si>
     <t>Campania</t>
   </si>
   <si>
     <t>Stato_conservazione_carcassa</t>
   </si>
   <si>
-    <t>Vuoto</t>
-  </si>
-  <si>
     <t>In decomposizione</t>
   </si>
   <si>
@@ -61,16 +55,16 @@
     <t>6-18 mesi (1 molare)</t>
   </si>
   <si>
+    <t>Oltre 30 mesi (3 molari)</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>Non determinato</t>
   </si>
   <si>
-    <t>Oltre 30 mesi (3 molari)</t>
-  </si>
-  <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
 </sst>
 </file>
@@ -147,10 +141,10 @@
         <v>2023.0</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>45046.0</v>
+        <v>45067.0</v>
       </c>
       <c r="D2" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="3">
@@ -161,10 +155,10 @@
         <v>2023.0</v>
       </c>
       <c r="C3" t="n" s="2">
-        <v>45053.0</v>
+        <v>45074.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>13.0</v>
       </c>
     </row>
     <row r="4">
@@ -175,7 +169,7 @@
         <v>2023.0</v>
       </c>
       <c r="C4" t="n" s="2">
-        <v>45060.0</v>
+        <v>45081.0</v>
       </c>
       <c r="D4" t="n">
         <v>2.0</v>
@@ -189,10 +183,10 @@
         <v>2023.0</v>
       </c>
       <c r="C5" t="n" s="2">
-        <v>45067.0</v>
+        <v>45088.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -203,10 +197,10 @@
         <v>2023.0</v>
       </c>
       <c r="C6" t="n" s="2">
-        <v>45081.0</v>
+        <v>45095.0</v>
       </c>
       <c r="D6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -217,10 +211,10 @@
         <v>2023.0</v>
       </c>
       <c r="C7" t="n" s="2">
-        <v>45095.0</v>
+        <v>45109.0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -231,121 +225,9 @@
         <v>2023.0</v>
       </c>
       <c r="C8" t="n" s="2">
-        <v>45102.0</v>
+        <v>45116.0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2023.0</v>
-      </c>
-      <c r="C9" t="n" s="2">
-        <v>45109.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2023.0</v>
-      </c>
-      <c r="C10" t="n" s="2">
-        <v>45067.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2023.0</v>
-      </c>
-      <c r="C11" t="n" s="2">
-        <v>45074.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2023.0</v>
-      </c>
-      <c r="C12" t="n" s="2">
-        <v>45081.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2023.0</v>
-      </c>
-      <c r="C13" t="n" s="2">
-        <v>45088.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2023.0</v>
-      </c>
-      <c r="C14" t="n" s="2">
-        <v>45095.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2023.0</v>
-      </c>
-      <c r="C15" t="n" s="2">
-        <v>45109.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2023.0</v>
-      </c>
-      <c r="C16" t="n" s="2">
-        <v>45116.0</v>
-      </c>
-      <c r="D16" t="n">
         <v>2.0</v>
       </c>
     </row>
@@ -364,7 +246,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -372,26 +254,18 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>3.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>26.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>
@@ -409,10 +283,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -420,65 +294,65 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -486,21 +360,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
         <v>4.0</v>
@@ -508,56 +382,23 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" t="n">
         <v>5.0</v>
       </c>
     </row>

--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -158,7 +158,7 @@
         <v>45074.0</v>
       </c>
       <c r="D3" t="n">
-        <v>13.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="4">
@@ -257,7 +257,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="3">
@@ -399,7 +399,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="21">
   <si>
     <t>NOME_REGIONE</t>
   </si>
@@ -28,13 +28,55 @@
     <t>N</t>
   </si>
   <si>
+    <t>Liguria</t>
+  </si>
+  <si>
+    <t>Lombardia</t>
+  </si>
+  <si>
+    <t>Piemonte</t>
+  </si>
+  <si>
     <t>Stato_conservazione_carcassa</t>
+  </si>
+  <si>
+    <t>Vuoto</t>
+  </si>
+  <si>
+    <t>Mummificata</t>
+  </si>
+  <si>
+    <t>In decomposizione</t>
+  </si>
+  <si>
+    <t>Fresca</t>
   </si>
   <si>
     <t>Eta_descrizione</t>
   </si>
   <si>
     <t>Sesso</t>
+  </si>
+  <si>
+    <t>0-6 mesi (solo premolari)</t>
+  </si>
+  <si>
+    <t>18-30 mesi (2 molari)</t>
+  </si>
+  <si>
+    <t>6-18 mesi (1 molare)</t>
+  </si>
+  <si>
+    <t>Non determinato</t>
+  </si>
+  <si>
+    <t>Oltre 30 mesi (3 molari)</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -104,10 +146,2342 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2" s="2"/>
-      <c r="D2"/>
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2021.0</v>
+      </c>
+      <c r="C2" t="n" s="2">
+        <v>44561.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C3" t="n" s="2">
+        <v>44576.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C4" t="n" s="2">
+        <v>44583.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C5" t="n" s="2">
+        <v>44590.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C6" t="n" s="2">
+        <v>44597.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C7" t="n" s="2">
+        <v>44604.0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C8" t="n" s="2">
+        <v>44611.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C9" t="n" s="2">
+        <v>44618.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C10" t="n" s="2">
+        <v>44625.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C11" t="n" s="2">
+        <v>44632.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C12" t="n" s="2">
+        <v>44639.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C13" t="n" s="2">
+        <v>44646.0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C14" t="n" s="2">
+        <v>44653.0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C15" t="n" s="2">
+        <v>44660.0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C16" t="n" s="2">
+        <v>44667.0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C17" t="n" s="2">
+        <v>44674.0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C18" t="n" s="2">
+        <v>44681.0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C19" t="n" s="2">
+        <v>44688.0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C20" t="n" s="2">
+        <v>44695.0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C21" t="n" s="2">
+        <v>44702.0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C22" t="n" s="2">
+        <v>44709.0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C23" t="n" s="2">
+        <v>44716.0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C24" t="n" s="2">
+        <v>44723.0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C25" t="n" s="2">
+        <v>44730.0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C26" t="n" s="2">
+        <v>44737.0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C27" t="n" s="2">
+        <v>44744.0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C28" t="n" s="2">
+        <v>44751.0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C29" t="n" s="2">
+        <v>44758.0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C30" t="n" s="2">
+        <v>44772.0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C31" t="n" s="2">
+        <v>44793.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C32" t="n" s="2">
+        <v>44800.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C33" t="n" s="2">
+        <v>44828.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C34" t="n" s="2">
+        <v>44849.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C35" t="n" s="2">
+        <v>44856.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C36" t="n" s="2">
+        <v>44863.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C37" t="n" s="2">
+        <v>44884.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C38" t="n" s="2">
+        <v>44891.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C39" t="n" s="2">
+        <v>44905.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C40" t="n" s="2">
+        <v>44912.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C41" t="n" s="2">
+        <v>44919.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C42" t="n" s="2">
+        <v>44934.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C43" t="n" s="2">
+        <v>44941.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C44" t="n" s="2">
+        <v>44948.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C45" t="n" s="2">
+        <v>44955.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C46" t="n" s="2">
+        <v>44962.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C47" t="n" s="2">
+        <v>44969.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C48" t="n" s="2">
+        <v>44976.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C49" t="n" s="2">
+        <v>44983.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C50" t="n" s="2">
+        <v>44990.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C51" t="n" s="2">
+        <v>44997.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C52" t="n" s="2">
+        <v>45004.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C53" t="n" s="2">
+        <v>45011.0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C54" t="n" s="2">
+        <v>45018.0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C55" t="n" s="2">
+        <v>45025.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C56" t="n" s="2">
+        <v>45032.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C57" t="n" s="2">
+        <v>45039.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C58" t="n" s="2">
+        <v>45046.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C59" t="n" s="2">
+        <v>45053.0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C60" t="n" s="2">
+        <v>45060.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C61" t="n" s="2">
+        <v>45067.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C62" t="n" s="2">
+        <v>45074.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C63" t="n" s="2">
+        <v>45081.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C64" t="n" s="2">
+        <v>45088.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C65" t="n" s="2">
+        <v>45095.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C66" t="n" s="2">
+        <v>45102.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C67" t="n" s="2">
+        <v>45109.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C68" t="n" s="2">
+        <v>45116.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C69" t="n" s="2">
+        <v>45123.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C70" t="n" s="2">
+        <v>45130.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C71" t="n" s="2">
+        <v>45137.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C72" t="n" s="2">
+        <v>45144.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C73" t="n" s="2">
+        <v>45151.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C74" t="n" s="2">
+        <v>45158.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C75" t="n" s="2">
+        <v>45165.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C76" t="n" s="2">
+        <v>45172.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C77" t="n" s="2">
+        <v>45179.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C78" t="n" s="2">
+        <v>45186.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C79" t="n" s="2">
+        <v>45193.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C80" t="n" s="2">
+        <v>45200.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C81" t="n" s="2">
+        <v>45207.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C82" t="n" s="2">
+        <v>45214.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C83" t="n" s="2">
+        <v>45221.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C84" t="n" s="2">
+        <v>45228.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C85" t="n" s="2">
+        <v>45095.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C86" t="n" s="2">
+        <v>45102.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C87" t="n" s="2">
+        <v>45158.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C88" t="n" s="2">
+        <v>45207.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C89" t="n" s="2">
+        <v>45214.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C90" t="n" s="2">
+        <v>45221.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2021.0</v>
+      </c>
+      <c r="C91" t="n" s="2">
+        <v>44561.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C92" t="n" s="2">
+        <v>44569.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C93" t="n" s="2">
+        <v>44576.0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C94" t="n" s="2">
+        <v>44583.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C95" t="n" s="2">
+        <v>44590.0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C96" t="n" s="2">
+        <v>44604.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>6</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C97" t="n" s="2">
+        <v>44611.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>6</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C98" t="n" s="2">
+        <v>44618.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C99" t="n" s="2">
+        <v>44625.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C100" t="n" s="2">
+        <v>44632.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C101" t="n" s="2">
+        <v>44639.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C102" t="n" s="2">
+        <v>44646.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C103" t="n" s="2">
+        <v>44653.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C104" t="n" s="2">
+        <v>44660.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>6</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C105" t="n" s="2">
+        <v>44667.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C106" t="n" s="2">
+        <v>44674.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C107" t="n" s="2">
+        <v>44681.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C108" t="n" s="2">
+        <v>44688.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C109" t="n" s="2">
+        <v>44695.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C110" t="n" s="2">
+        <v>44702.0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C111" t="n" s="2">
+        <v>44709.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C112" t="n" s="2">
+        <v>44716.0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>6</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C113" t="n" s="2">
+        <v>44723.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>6</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C114" t="n" s="2">
+        <v>44730.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C115" t="n" s="2">
+        <v>44737.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>6</v>
+      </c>
+      <c r="B116" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C116" t="n" s="2">
+        <v>44744.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C117" t="n" s="2">
+        <v>44751.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C118" t="n" s="2">
+        <v>44758.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C119" t="n" s="2">
+        <v>44765.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>6</v>
+      </c>
+      <c r="B120" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C120" t="n" s="2">
+        <v>44779.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C121" t="n" s="2">
+        <v>44786.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C122" t="n" s="2">
+        <v>44863.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C123" t="n" s="2">
+        <v>44870.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C124" t="n" s="2">
+        <v>44884.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C125" t="n" s="2">
+        <v>44891.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C126" t="n" s="2">
+        <v>44898.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>6</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C127" t="n" s="2">
+        <v>44912.0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>6</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C128" t="n" s="2">
+        <v>44919.0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2022.0</v>
+      </c>
+      <c r="C129" t="n" s="2">
+        <v>44926.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C130" t="n" s="2">
+        <v>44934.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>6</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C131" t="n" s="2">
+        <v>44941.0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C132" t="n" s="2">
+        <v>44948.0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C133" t="n" s="2">
+        <v>44955.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C134" t="n" s="2">
+        <v>44962.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>6</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C135" t="n" s="2">
+        <v>44969.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C136" t="n" s="2">
+        <v>44976.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>22.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C137" t="n" s="2">
+        <v>44983.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C138" t="n" s="2">
+        <v>44990.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>6</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C139" t="n" s="2">
+        <v>44997.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>24.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C140" t="n" s="2">
+        <v>45004.0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C141" t="n" s="2">
+        <v>45011.0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C142" t="n" s="2">
+        <v>45018.0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>6</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C143" t="n" s="2">
+        <v>45025.0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>6</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C144" t="n" s="2">
+        <v>45032.0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C145" t="n" s="2">
+        <v>45039.0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>6</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C146" t="n" s="2">
+        <v>45046.0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>6</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C147" t="n" s="2">
+        <v>45053.0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C148" t="n" s="2">
+        <v>45060.0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C149" t="n" s="2">
+        <v>45067.0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>6</v>
+      </c>
+      <c r="B150" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C150" t="n" s="2">
+        <v>45074.0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>6</v>
+      </c>
+      <c r="B151" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C151" t="n" s="2">
+        <v>45081.0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C152" t="n" s="2">
+        <v>45088.0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>6</v>
+      </c>
+      <c r="B153" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C153" t="n" s="2">
+        <v>45095.0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C154" t="n" s="2">
+        <v>45102.0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C155" t="n" s="2">
+        <v>45109.0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C156" t="n" s="2">
+        <v>45116.0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>6</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C157" t="n" s="2">
+        <v>45123.0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C158" t="n" s="2">
+        <v>45130.0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>6</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C159" t="n" s="2">
+        <v>45137.0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C160" t="n" s="2">
+        <v>45144.0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>6</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C161" t="n" s="2">
+        <v>45151.0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C162" t="n" s="2">
+        <v>45165.0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C163" t="n" s="2">
+        <v>45172.0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>6</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C164" t="n" s="2">
+        <v>45179.0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C165" t="n" s="2">
+        <v>45186.0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>6</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C166" t="n" s="2">
+        <v>45193.0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>6</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C167" t="n" s="2">
+        <v>45200.0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C168" t="n" s="2">
+        <v>45207.0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -124,15 +2498,43 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="n">
+        <v>71.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>390.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="n">
+        <v>480.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -149,19 +2551,190 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2"/>
-      <c r="B2"/>
-      <c r="C2"/>
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="n">
+        <v>70.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="n">
+        <v>56.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="n">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="n">
+        <v>126.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="n">
+        <v>98.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="n">
+        <v>46.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="n">
+        <v>99.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="n">
+        <v>87.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="n">
+        <v>47.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="n">
+        <v>76.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="n">
+        <v>76.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="n">
+        <v>103.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="n">
+        <v>30.0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -1304,7 +1304,7 @@
         <v>45228.0</v>
       </c>
       <c r="D84" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="85">
@@ -2525,7 +2525,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>390.0</v>
+        <v>391.0</v>
       </c>
     </row>
     <row r="5">
@@ -2533,7 +2533,7 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>480.0</v>
+        <v>484.0</v>
       </c>
     </row>
   </sheetData>
@@ -2568,7 +2568,7 @@
         <v>19</v>
       </c>
       <c r="C2" t="n">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
     </row>
     <row r="3">
@@ -2579,7 +2579,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="n">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="4">
@@ -2601,7 +2601,7 @@
         <v>19</v>
       </c>
       <c r="C5" t="n">
-        <v>126.0</v>
+        <v>127.0</v>
       </c>
     </row>
     <row r="6">
@@ -2612,7 +2612,7 @@
         <v>20</v>
       </c>
       <c r="C6" t="n">
-        <v>98.0</v>
+        <v>99.0</v>
       </c>
     </row>
     <row r="7">
@@ -2656,7 +2656,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="n">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="11">

--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>NOME_REGIONE</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -169,6 +172,20 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C5" t="n" s="2">
+        <v>45249.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -211,7 +228,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>
@@ -251,10 +268,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -262,12 +279,23 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
       <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
         <v>2.0</v>
       </c>
     </row>

--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>NOME_REGIONE</t>
   </si>
@@ -186,6 +186,20 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2023.0</v>
+      </c>
+      <c r="C6" t="n" s="2">
+        <v>45256.0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -212,7 +226,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -296,7 +310,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>NOME_REGIONE</t>
   </si>
@@ -226,7 +226,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -242,7 +242,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -296,7 +296,7 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -304,13 +304,24 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>

--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
   <si>
     <t>NOME_REGIONE</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
 </sst>
 </file>
@@ -155,7 +152,7 @@
         <v>45214.0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -169,34 +166,6 @@
         <v>45221.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2023.0</v>
-      </c>
-      <c r="C5" t="n" s="2">
-        <v>45249.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2023.0</v>
-      </c>
-      <c r="C6" t="n" s="2">
-        <v>45256.0</v>
-      </c>
-      <c r="D6" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -242,7 +211,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -277,15 +246,15 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -293,34 +262,12 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="n">
         <v>2.0</v>
       </c>
     </row>

--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>NOME_REGIONE</t>
   </si>
@@ -169,6 +169,20 @@
         <v>1.0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2024.0</v>
+      </c>
+      <c r="C5" t="n" s="2">
+        <v>45313.0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -211,7 +225,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
@@ -271,6 +285,17 @@
         <v>2.0</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Download/Focus_Positivi_ZP.xlsx
+++ b/Download/Focus_Positivi_ZP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>NOME_REGIONE</t>
   </si>
@@ -28,37 +28,13 @@
     <t>N</t>
   </si>
   <si>
-    <t>Lombardia</t>
-  </si>
-  <si>
     <t>Stato_conservazione_carcassa</t>
-  </si>
-  <si>
-    <t>Vuoto</t>
-  </si>
-  <si>
-    <t>In decomposizione</t>
-  </si>
-  <si>
-    <t>Fresca</t>
   </si>
   <si>
     <t>Eta_descrizione</t>
   </si>
   <si>
     <t>Sesso</t>
-  </si>
-  <si>
-    <t>18-30 mesi (2 molari)</t>
-  </si>
-  <si>
-    <t>6-18 mesi (1 molare)</t>
-  </si>
-  <si>
-    <t>Non determinato</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
 </sst>
 </file>
@@ -128,60 +104,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2023.0</v>
-      </c>
-      <c r="C2" t="n" s="2">
-        <v>45207.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2023.0</v>
-      </c>
-      <c r="C3" t="n" s="2">
-        <v>45214.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2023.0</v>
-      </c>
-      <c r="C4" t="n" s="2">
-        <v>45221.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2024.0</v>
-      </c>
-      <c r="C5" t="n" s="2">
-        <v>45313.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2" s="2"/>
+      <c r="D2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -198,35 +124,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3.0</v>
-      </c>
+      <c r="A2"/>
+      <c r="B2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -243,58 +149,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.0</v>
-      </c>
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
